--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EC6307-7732-4DA2-81AD-51B67609E873}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE31E3B-AFE1-49A4-A4A0-84C6240DB167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15252" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="137">
   <si>
     <t>Feature name</t>
   </si>
@@ -236,9 +236,6 @@
     <t xml:space="preserve">lang_JA      </t>
   </si>
   <si>
-    <t xml:space="preserve">keywords_cnt      </t>
-  </si>
-  <si>
     <t xml:space="preserve">actor0_movies_cnt      </t>
   </si>
   <si>
@@ -429,13 +426,19 @@
   </si>
   <si>
     <t>movie_crew LEFT OUTER JOIN movies</t>
+  </si>
+  <si>
+    <t>There are lots of films with zero or close to zero values…</t>
+  </si>
+  <si>
+    <t>Only 2 films don't have poster - the whole columns should be removed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -484,6 +487,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -526,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -545,6 +554,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,18 +881,21 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z86"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="13" max="13" width="60.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -944,7 +965,33 @@
       <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>7398</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -959,9 +1006,32 @@
       <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3">
+        <v>704</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>380000000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -977,7 +1047,30 @@
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
@@ -992,71 +1085,186 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="11">
+        <v>7371</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>547488</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>167</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>338</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>50</v>
+      <c r="A7" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2844</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1519557910</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -1067,11 +1275,34 @@
       <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
@@ -1082,11 +1313,37 @@
       <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>14</v>
@@ -1097,35 +1354,105 @@
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>46</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13">
+        <v>4696</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="14">
+        <v>6788</v>
+      </c>
+      <c r="J14" s="14">
+        <v>42958</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1141,6 +1468,30 @@
       <c r="D15" t="s">
         <v>25</v>
       </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>98</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>1918</v>
+      </c>
+      <c r="J15">
+        <v>2017</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1155,36 +1506,87 @@
       <c r="D16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1197,8 +1599,11 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1212,7 +1617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1226,7 +1631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1240,7 +1645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1254,7 +1659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1268,7 +1673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1282,7 +1687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1296,7 +1701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1310,11 +1715,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C28" t="s">
@@ -1324,12 +1729,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -1338,12 +1743,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -1352,12 +1757,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>74</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -1366,12 +1771,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -1385,7 +1790,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1402,10 +1807,10 @@
         <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1413,7 +1818,7 @@
         <v>78</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -1427,7 +1832,7 @@
         <v>79</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -1441,7 +1846,7 @@
         <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -1455,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
         <v>20</v>
@@ -1469,7 +1874,7 @@
         <v>82</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
         <v>20</v>
@@ -1483,13 +1888,13 @@
         <v>83</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1497,7 +1902,7 @@
         <v>84</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
@@ -1511,7 +1916,7 @@
         <v>85</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -1525,7 +1930,7 @@
         <v>86</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -1539,7 +1944,7 @@
         <v>87</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -1548,18 +1953,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>135</v>
+      <c r="B45" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1567,7 +1972,7 @@
         <v>89</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s">
         <v>20</v>
@@ -1581,7 +1986,7 @@
         <v>90</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
@@ -1595,7 +2000,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
         <v>20</v>
@@ -1609,7 +2014,7 @@
         <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C49" t="s">
         <v>20</v>
@@ -1623,7 +2028,7 @@
         <v>93</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" t="s">
         <v>20</v>
@@ -1637,7 +2042,7 @@
         <v>94</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
         <v>20</v>
@@ -1651,7 +2056,7 @@
         <v>95</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
         <v>20</v>
@@ -1665,7 +2070,7 @@
         <v>96</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
         <v>20</v>
@@ -1679,7 +2084,7 @@
         <v>97</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
         <v>20</v>
@@ -1693,7 +2098,7 @@
         <v>98</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
         <v>20</v>
@@ -1707,7 +2112,7 @@
         <v>99</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1721,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -1735,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
@@ -1749,7 +2154,7 @@
         <v>102</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -1763,7 +2168,7 @@
         <v>103</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" t="s">
         <v>20</v>
@@ -1777,7 +2182,7 @@
         <v>104</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -1791,7 +2196,7 @@
         <v>105</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" t="s">
         <v>20</v>
@@ -1805,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
         <v>20</v>
@@ -1822,10 +2227,10 @@
         <v>129</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,7 +2238,7 @@
         <v>108</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
         <v>15</v>
@@ -1847,7 +2252,7 @@
         <v>109</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -1861,7 +2266,7 @@
         <v>110</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -1875,7 +2280,7 @@
         <v>111</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -1889,7 +2294,7 @@
         <v>112</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
@@ -1903,7 +2308,7 @@
         <v>113</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -1917,7 +2322,7 @@
         <v>114</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -1931,7 +2336,7 @@
         <v>115</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -1945,7 +2350,7 @@
         <v>116</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -1959,7 +2364,7 @@
         <v>117</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -1987,7 +2392,7 @@
         <v>119</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -2001,7 +2406,7 @@
         <v>120</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -2015,7 +2420,7 @@
         <v>121</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -2029,7 +2434,7 @@
         <v>122</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
@@ -2043,7 +2448,7 @@
         <v>123</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -2057,7 +2462,7 @@
         <v>124</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -2071,7 +2476,7 @@
         <v>125</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -2085,7 +2490,7 @@
         <v>126</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -2099,7 +2504,7 @@
         <v>127</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -2110,29 +2515,15 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2146,31 +2537,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C1003</xm:sqref>
+          <xm:sqref>C2:C1002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1003</xm:sqref>
+          <xm:sqref>K2:K1002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$3:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L1:L1003</xm:sqref>
+          <xm:sqref>L1:L1002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1003</xm:sqref>
+          <xm:sqref>D2:D1002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$3:$C$12</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1003</xm:sqref>
+          <xm:sqref>E2:E1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE31E3B-AFE1-49A4-A4A0-84C6240DB167}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800BFAE-84E5-48F7-B250-5E3E62A20EA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="139">
   <si>
     <t>Feature name</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>Only 2 films don't have poster - the whole columns should be removed</t>
+  </si>
+  <si>
+    <t>Movies belongin to multiple collections look like an error (check movie_id= 555)</t>
+  </si>
+  <si>
+    <t>Whether movie was released onm those monthes (8,9,10,12)</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,7 +560,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -883,8 +888,8 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1015,8 +1020,8 @@
       <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="10">
-        <v>4.2361111111111106E-2</v>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1088,13 +1093,13 @@
       <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>7371</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I5">
@@ -1129,10 +1134,10 @@
       <c r="F6">
         <v>167</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="G6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I6">
@@ -1167,10 +1172,10 @@
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I7">
@@ -1202,19 +1207,19 @@
       <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>2844</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1519557910</v>
       </c>
       <c r="K8" t="s">
@@ -1225,7 +1230,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1243,10 +1248,10 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I9">
@@ -1281,10 +1286,10 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I10">
@@ -1319,10 +1324,10 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I11">
@@ -1360,10 +1365,10 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I12">
@@ -1398,10 +1403,10 @@
       <c r="F13">
         <v>46</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I13">
@@ -1433,19 +1438,19 @@
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>4696</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="14">
+      <c r="G14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="13">
         <v>6788</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>42958</v>
       </c>
       <c r="K14" t="s">
@@ -1474,10 +1479,10 @@
       <c r="F15">
         <v>98</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I15">
@@ -1512,10 +1517,10 @@
       <c r="F16">
         <v>12</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I16">
@@ -1531,7 +1536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1550,10 +1555,10 @@
       <c r="F17">
         <v>31</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I17">
@@ -1569,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1583,10 +1588,34 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1597,13 +1626,34 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="10">
+        <v>-50746591</v>
+      </c>
+      <c r="J19" s="10">
+        <v>74205073</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -1616,8 +1666,35 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1630,8 +1707,32 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1644,8 +1745,32 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1658,8 +1783,32 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1672,8 +1821,32 @@
       <c r="D24" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1686,8 +1859,32 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1700,8 +1897,32 @@
       <c r="D26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1714,8 +1935,32 @@
       <c r="D27" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1728,10 +1973,34 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>61</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>132</v>
@@ -1742,10 +2011,34 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>59</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>67</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>132</v>
@@ -1756,10 +2049,34 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>53</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>68</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>132</v>
@@ -1770,10 +2087,34 @@
       <c r="D31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>17</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>132</v>
@@ -1784,8 +2125,32 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -1798,8 +2163,32 @@
       <c r="D33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -1812,8 +2201,32 @@
       <c r="D34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1826,8 +2239,32 @@
       <c r="D35" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1840,8 +2277,32 @@
       <c r="D36" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1854,8 +2315,32 @@
       <c r="D37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1868,8 +2353,32 @@
       <c r="D38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1882,8 +2391,32 @@
       <c r="D39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1896,8 +2429,32 @@
       <c r="D40" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1151</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K40" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1910,8 +2467,32 @@
       <c r="D41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1264</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -1924,8 +2505,32 @@
       <c r="D42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>1340</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K42" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -1938,8 +2543,32 @@
       <c r="D43" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>30</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>29</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -1952,8 +2581,32 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>6</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1964,10 +2617,34 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>1</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -1978,10 +2655,34 @@
         <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -1992,10 +2693,34 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2006,10 +2731,34 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2020,10 +2769,34 @@
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -2034,10 +2807,34 @@
         <v>20</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>1</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2048,10 +2845,34 @@
         <v>20</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2062,10 +2883,34 @@
         <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2076,10 +2921,34 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2090,10 +2959,34 @@
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>1</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -2104,10 +2997,34 @@
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -2118,10 +3035,34 @@
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>1</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -2132,10 +3073,34 @@
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -2146,10 +3111,34 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>1</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -2160,10 +3149,34 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>1</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -2174,10 +3187,34 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>1</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -2188,10 +3225,34 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>1</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -2202,10 +3263,34 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>1</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -2216,10 +3301,34 @@
         <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>1</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -2232,8 +3341,32 @@
       <c r="D64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64">
+        <v>34</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>36</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -2246,8 +3379,32 @@
       <c r="D65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65">
+        <v>23</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>24</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -2260,8 +3417,32 @@
       <c r="D66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66">
+        <v>50</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>119</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -2274,8 +3455,32 @@
       <c r="D67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>27</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>33</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -2288,8 +3493,32 @@
       <c r="D68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68">
+        <v>23</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>30</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -2302,8 +3531,32 @@
       <c r="D69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>21</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>113</v>
       </c>
@@ -2316,8 +3569,32 @@
       <c r="D70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>13</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>18</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -2330,8 +3607,32 @@
       <c r="D71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <v>37</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>38</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -2344,8 +3645,32 @@
       <c r="D72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72">
+        <v>34</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>40</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -2358,8 +3683,32 @@
       <c r="D73" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>45</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>89</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -2372,8 +3721,32 @@
       <c r="D74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74">
+        <v>20</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>23</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -2386,8 +3759,32 @@
       <c r="D75" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>7</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -2400,8 +3797,32 @@
       <c r="D76" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -2414,8 +3835,32 @@
       <c r="D77" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -2428,8 +3873,32 @@
       <c r="D78" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78">
+        <v>7</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -2442,8 +3911,32 @@
       <c r="D79" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -2456,8 +3949,32 @@
       <c r="D80" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -2470,8 +3987,32 @@
       <c r="D81" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -2484,8 +4025,32 @@
       <c r="D82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>12</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>12</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -2498,8 +4063,32 @@
       <c r="D83" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -2512,8 +4101,32 @@
       <c r="D84" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -2525,6 +4138,30 @@
       </c>
       <c r="D85" t="s">
         <v>18</v>
+      </c>
+      <c r="E85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2545,12 +4182,6 @@
           </x14:formula1>
           <xm:sqref>K2:K1002</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$3:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1:L1002</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$3:$B$7</xm:f>
@@ -2562,6 +4193,12 @@
             <xm:f>Sheet2!$C$3:$C$12</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E1002</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$3:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>L1:L1002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A800BFAE-84E5-48F7-B250-5E3E62A20EA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6287D3-1075-4029-884A-7F09FBF924D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="139">
   <si>
     <t>Feature name</t>
   </si>
@@ -889,7 +889,7 @@
   <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -992,7 +992,7 @@
         <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
@@ -1032,8 +1032,8 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>37</v>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>135</v>
@@ -1111,8 +1111,8 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" t="s">
-        <v>37</v>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1149,8 +1149,8 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" t="s">
-        <v>27</v>
+      <c r="L6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1225,8 +1225,8 @@
       <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="L8" t="s">
-        <v>27</v>
+      <c r="L8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1418,8 +1418,8 @@
       <c r="K13" t="s">
         <v>33</v>
       </c>
-      <c r="L13" t="s">
-        <v>27</v>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1468,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>25</v>
@@ -1506,7 +1506,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -1544,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>137</v>
@@ -1766,8 +1766,8 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" t="s">
-        <v>37</v>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,7 +1919,7 @@
         <v>11</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1957,7 +1957,7 @@
         <v>11</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,8 +1994,8 @@
       <c r="K28" t="s">
         <v>11</v>
       </c>
-      <c r="L28" t="s">
-        <v>37</v>
+      <c r="L28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2032,8 +2032,8 @@
       <c r="K29" t="s">
         <v>11</v>
       </c>
-      <c r="L29" t="s">
-        <v>37</v>
+      <c r="L29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2070,8 +2070,8 @@
       <c r="K30" t="s">
         <v>11</v>
       </c>
-      <c r="L30" t="s">
-        <v>37</v>
+      <c r="L30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2108,8 +2108,8 @@
       <c r="K31" t="s">
         <v>11</v>
       </c>
-      <c r="L31" t="s">
-        <v>37</v>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2146,8 +2146,8 @@
       <c r="K32" t="s">
         <v>11</v>
       </c>
-      <c r="L32" t="s">
-        <v>37</v>
+      <c r="L32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2184,8 +2184,8 @@
       <c r="K33" t="s">
         <v>11</v>
       </c>
-      <c r="L33" t="s">
-        <v>37</v>
+      <c r="L33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2450,8 +2450,8 @@
       <c r="K40" t="s">
         <v>11</v>
       </c>
-      <c r="L40" t="s">
-        <v>27</v>
+      <c r="L40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2488,8 +2488,8 @@
       <c r="K41" t="s">
         <v>11</v>
       </c>
-      <c r="L41" t="s">
-        <v>27</v>
+      <c r="L41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2526,8 +2526,8 @@
       <c r="K42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" t="s">
-        <v>27</v>
+      <c r="L42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2564,8 +2564,8 @@
       <c r="K43" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>37</v>
+      <c r="L43" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2603,7 +2603,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,8 +3362,8 @@
       <c r="K64" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>27</v>
+      <c r="L64" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,8 +3400,8 @@
       <c r="K65" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>27</v>
+      <c r="L65" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3438,8 +3438,8 @@
       <c r="K66" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>27</v>
+      <c r="L66" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3476,8 +3476,8 @@
       <c r="K67" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>27</v>
+      <c r="L67" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3514,8 +3514,8 @@
       <c r="K68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>27</v>
+      <c r="L68" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3552,8 +3552,8 @@
       <c r="K69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>27</v>
+      <c r="L69" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,8 +3590,8 @@
       <c r="K70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>27</v>
+      <c r="L70" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,8 +3628,8 @@
       <c r="K71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>27</v>
+      <c r="L71" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3666,8 +3666,8 @@
       <c r="K72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>27</v>
+      <c r="L72" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,8 +3704,8 @@
       <c r="K73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>27</v>
+      <c r="L73" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3742,8 +3742,8 @@
       <c r="K74" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>27</v>
+      <c r="L74" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6287D3-1075-4029-884A-7F09FBF924D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E66829-6A10-451A-8E77-72EE25440661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E66829-6A10-451A-8E77-72EE25440661}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57855ACB-97D5-472C-8F21-43029081E6CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2745" yWindow="2745" windowWidth="18000" windowHeight="9360" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="10" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">protocol!$A$1:$M$85</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -888,15 +891,15 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -998,45 +1001,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3">
-        <v>704</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>380000000</v>
-      </c>
-      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>135</v>
+      <c r="L3" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1071,30 +1071,30 @@
         <v>27</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="10">
-        <v>7371</v>
+      <c r="F5">
+        <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>27</v>
@@ -1106,33 +1106,36 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>547488</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>27</v>
@@ -1144,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>338</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1184,49 +1187,49 @@
       <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>27</v>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="12">
-        <v>2844</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1260,8 +1263,8 @@
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>27</v>
+      <c r="K9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -1298,8 +1301,8 @@
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>27</v>
+      <c r="K10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -1336,8 +1339,8 @@
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>27</v>
+      <c r="K11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -1377,31 +1380,31 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>27</v>
+      <c r="K12" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>131</v>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>27</v>
@@ -1413,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>149</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1491,7 +1494,7 @@
       <c r="J15">
         <v>2017</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L15" t="s">
@@ -1529,7 +1532,7 @@
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L16" t="s">
@@ -1567,7 +1570,7 @@
       <c r="J17">
         <v>31</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L17" t="s">
@@ -1605,7 +1608,7 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L18" t="s">
@@ -1615,12 +1618,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1629,10 +1632,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>27</v>
@@ -1640,25 +1643,25 @@
       <c r="H19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="10">
-        <v>-50746591</v>
-      </c>
-      <c r="J19" s="10">
-        <v>74205073</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>34</v>
+        <v>126</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
@@ -1670,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>27</v>
@@ -1682,24 +1685,21 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -1711,7 +1711,7 @@
         <v>26</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>27</v>
@@ -1720,24 +1720,24 @@
         <v>27</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>26</v>
-      </c>
-      <c r="K21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1749,7 +1749,7 @@
         <v>26</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>27</v>
@@ -1760,14 +1760,14 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>12</v>
-      </c>
-      <c r="K22" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+      <c r="J22" s="12">
+        <v>6</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1801,8 +1801,8 @@
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23" t="s">
-        <v>11</v>
+      <c r="K23" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L23" t="s">
         <v>27</v>
@@ -1839,8 +1839,8 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" t="s">
-        <v>11</v>
+      <c r="K24" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L24" t="s">
         <v>27</v>
@@ -1877,8 +1877,8 @@
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25" t="s">
-        <v>11</v>
+      <c r="K25" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L25" t="s">
         <v>27</v>
@@ -1915,8 +1915,8 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" t="s">
-        <v>11</v>
+      <c r="K26" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L26" t="s">
         <v>27</v>
@@ -1953,19 +1953,19 @@
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27" t="s">
-        <v>11</v>
+      <c r="K27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>132</v>
+        <v>121</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
@@ -1977,7 +1977,7 @@
         <v>26</v>
       </c>
       <c r="F28">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>27</v>
@@ -1989,21 +1989,21 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>65</v>
-      </c>
-      <c r="K28" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>132</v>
+        <v>118</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -2015,7 +2015,7 @@
         <v>26</v>
       </c>
       <c r="F29">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>27</v>
@@ -2027,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>67</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -2053,7 +2053,7 @@
         <v>26</v>
       </c>
       <c r="F30">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>27</v>
@@ -2065,21 +2065,21 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>68</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>132</v>
+        <v>62</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2088,10 +2088,10 @@
         <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>27</v>
@@ -2099,25 +2099,25 @@
       <c r="H31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>16</v>
-      </c>
-      <c r="K31" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
+      <c r="I31" s="10">
+        <v>-50746591</v>
+      </c>
+      <c r="J31" s="10">
+        <v>74205073</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -2129,7 +2129,7 @@
         <v>26</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>27</v>
@@ -2141,21 +2141,21 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>17</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -2167,7 +2167,7 @@
         <v>26</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>27</v>
@@ -2179,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2219,8 +2219,8 @@
       <c r="J34">
         <v>1</v>
       </c>
-      <c r="K34" t="s">
-        <v>11</v>
+      <c r="K34" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L34" t="s">
         <v>27</v>
@@ -2257,8 +2257,8 @@
       <c r="J35">
         <v>1</v>
       </c>
-      <c r="K35" t="s">
-        <v>11</v>
+      <c r="K35" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L35" t="s">
         <v>27</v>
@@ -2295,8 +2295,8 @@
       <c r="J36">
         <v>1</v>
       </c>
-      <c r="K36" t="s">
-        <v>11</v>
+      <c r="K36" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L36" t="s">
         <v>27</v>
@@ -2333,8 +2333,8 @@
       <c r="J37">
         <v>1</v>
       </c>
-      <c r="K37" t="s">
-        <v>11</v>
+      <c r="K37" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L37" t="s">
         <v>27</v>
@@ -2371,8 +2371,8 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38" t="s">
-        <v>11</v>
+      <c r="K38" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L38" t="s">
         <v>27</v>
@@ -2409,19 +2409,19 @@
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39" t="s">
-        <v>11</v>
+      <c r="K39" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>132</v>
+        <v>113</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -2432,31 +2432,31 @@
       <c r="E40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="12">
-        <v>1151</v>
+      <c r="F40">
+        <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>18</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>132</v>
@@ -2470,34 +2470,34 @@
       <c r="E41" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="12">
-        <v>1264</v>
+      <c r="F41">
+        <v>16</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>15</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>132</v>
+        <v>112</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
@@ -2509,33 +2509,33 @@
         <v>26</v>
       </c>
       <c r="F42">
-        <v>1340</v>
+        <v>16</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" s="12">
-        <v>1519557910</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>21</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
@@ -2547,7 +2547,7 @@
         <v>26</v>
       </c>
       <c r="F43">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>27</v>
@@ -2558,22 +2558,22 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="12">
-        <v>29</v>
-      </c>
-      <c r="K43" s="9" t="s">
+      <c r="J43">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s">
         <v>11</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -2585,7 +2585,7 @@
         <v>26</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>27</v>
@@ -2596,14 +2596,14 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="J44" s="12">
-        <v>6</v>
-      </c>
-      <c r="K44" s="9" t="s">
+      <c r="J44">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
         <v>11</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>27</v>
+      <c r="L44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>129</v>
@@ -3345,7 +3345,7 @@
         <v>26</v>
       </c>
       <c r="F64">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>27</v>
@@ -3356,8 +3356,8 @@
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="12">
-        <v>36</v>
+      <c r="J64">
+        <v>23</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>11</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -3404,9 +3404,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>129</v>
@@ -3421,7 +3421,7 @@
         <v>26</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>27</v>
@@ -3432,8 +3432,8 @@
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="12">
-        <v>119</v>
+      <c r="J66">
+        <v>30</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>11</v>
@@ -3442,12 +3442,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>110</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>129</v>
+        <v>64</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -3459,7 +3459,7 @@
         <v>26</v>
       </c>
       <c r="F67">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>27</v>
@@ -3468,21 +3468,21 @@
         <v>27</v>
       </c>
       <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67" s="12">
-        <v>33</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>129</v>
@@ -3497,7 +3497,7 @@
         <v>26</v>
       </c>
       <c r="F68">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>27</v>
@@ -3508,8 +3508,8 @@
       <c r="I68">
         <v>0</v>
       </c>
-      <c r="J68">
-        <v>30</v>
+      <c r="J68" s="12">
+        <v>33</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>11</v>
@@ -3518,12 +3518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>129</v>
+        <v>86</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
@@ -3535,7 +3535,7 @@
         <v>26</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>27</v>
@@ -3546,8 +3546,8 @@
       <c r="I69">
         <v>0</v>
       </c>
-      <c r="J69">
-        <v>21</v>
+      <c r="J69" s="12">
+        <v>29</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>11</v>
@@ -3556,9 +3556,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>129</v>
@@ -3573,7 +3573,7 @@
         <v>26</v>
       </c>
       <c r="F70">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>27</v>
@@ -3584,8 +3584,8 @@
       <c r="I70">
         <v>0</v>
       </c>
-      <c r="J70">
-        <v>18</v>
+      <c r="J70" s="12">
+        <v>36</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>11</v>
@@ -3594,9 +3594,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>129</v>
@@ -3611,7 +3611,7 @@
         <v>26</v>
       </c>
       <c r="F71">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>27</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K71" s="9" t="s">
         <v>11</v>
@@ -3632,9 +3632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>129</v>
@@ -3649,7 +3649,7 @@
         <v>26</v>
       </c>
       <c r="F72">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>27</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>11</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -3708,24 +3708,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>117</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>129</v>
+    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E74" t="s">
         <v>26</v>
       </c>
       <c r="F74">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G74" s="11" t="s">
         <v>27</v>
@@ -3737,21 +3737,21 @@
         <v>0</v>
       </c>
       <c r="J74">
-        <v>23</v>
-      </c>
-      <c r="K74" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L74" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -3763,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>27</v>
@@ -3774,22 +3774,22 @@
       <c r="I75">
         <v>0</v>
       </c>
-      <c r="J75">
-        <v>7</v>
+      <c r="J75" s="12">
+        <v>119</v>
       </c>
       <c r="K75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -3801,7 +3801,7 @@
         <v>26</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>27</v>
@@ -3813,21 +3813,21 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K76" t="s">
         <v>11</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>120</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -3839,7 +3839,7 @@
         <v>26</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="G77" s="11" t="s">
         <v>27</v>
@@ -3851,21 +3851,21 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>10</v>
-      </c>
-      <c r="K77" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" t="s">
         <v>11</v>
       </c>
-      <c r="L77" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -3877,7 +3877,7 @@
         <v>26</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>27</v>
@@ -3889,33 +3889,33 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>6</v>
-      </c>
-      <c r="K78" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="K78" t="s">
         <v>11</v>
       </c>
-      <c r="L78" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>27</v>
@@ -3927,59 +3927,62 @@
         <v>0</v>
       </c>
       <c r="J79">
-        <v>4</v>
-      </c>
-      <c r="K79" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="K79" t="s">
         <v>11</v>
       </c>
-      <c r="L79" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F80">
-        <v>5</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>27</v>
+        <v>704</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>5</v>
-      </c>
-      <c r="K80" s="9" t="s">
+        <v>380000000</v>
+      </c>
+      <c r="K80" t="s">
         <v>11</v>
       </c>
-      <c r="L80" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>130</v>
+        <v>83</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -3990,34 +3993,34 @@
       <c r="E81" t="s">
         <v>26</v>
       </c>
-      <c r="F81">
-        <v>2</v>
+      <c r="F81" s="12">
+        <v>1151</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K81" t="s">
         <v>11</v>
       </c>
-      <c r="L81" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>130</v>
+        <v>84</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -4028,34 +4031,34 @@
       <c r="E82" t="s">
         <v>26</v>
       </c>
-      <c r="F82">
-        <v>12</v>
+      <c r="F82" s="12">
+        <v>1264</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>12</v>
-      </c>
-      <c r="K82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K82" t="s">
         <v>11</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>130</v>
+        <v>85</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -4067,83 +4070,83 @@
         <v>26</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>1340</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>6</v>
-      </c>
-      <c r="K83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K83" t="s">
         <v>11</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D84" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-      <c r="G84" s="11" t="s">
-        <v>27</v>
+      <c r="F84" s="12">
+        <v>2844</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>27</v>
       </c>
       <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84" s="12">
+        <v>1519557910</v>
+      </c>
+      <c r="K84" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="L84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F85">
-        <v>6</v>
+      <c r="F85" s="10">
+        <v>7371</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>27</v>
@@ -4155,16 +4158,21 @@
         <v>0</v>
       </c>
       <c r="J85">
-        <v>5</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L85" s="9" t="s">
-        <v>27</v>
+        <v>547488</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M85" xr:uid="{A377AA76-3540-4D7F-85D7-EE3C690E262F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M85">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57855ACB-97D5-472C-8F21-43029081E6CF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AFA2A-0697-4BCC-B79A-52FFC9CDF291}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2745" yWindow="2745" windowWidth="18000" windowHeight="9360" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -891,8 +891,8 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1085,7 +1085,7 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bb\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47AFA2A-0697-4BCC-B79A-52FFC9CDF291}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5995B70-F812-4B74-97F5-025C2193BE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="149">
   <si>
     <t>Feature name</t>
   </si>
@@ -431,9 +431,6 @@
     <t>movie_crew LEFT OUTER JOIN movies</t>
   </si>
   <si>
-    <t>There are lots of films with zero or close to zero values…</t>
-  </si>
-  <si>
     <t>Only 2 films don't have poster - the whole columns should be removed</t>
   </si>
   <si>
@@ -441,6 +438,39 @@
   </si>
   <si>
     <t>Whether movie was released onm those monthes (8,9,10,12)</t>
+  </si>
+  <si>
+    <t>Set Value type=Categorical due to low variability</t>
+  </si>
+  <si>
+    <t>No outliers</t>
+  </si>
+  <si>
+    <t>Sqrt</t>
+  </si>
+  <si>
+    <t>Sqrt transformtation to reduce number of outliers</t>
+  </si>
+  <si>
+    <t>Winsorizing</t>
+  </si>
+  <si>
+    <t>Regression line looks the same also with outliers</t>
+  </si>
+  <si>
+    <t>Outlier crates strong assosiation</t>
+  </si>
+  <si>
+    <t>Strong assosiation created</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Log transformtation to reduce the variability</t>
+  </si>
+  <si>
+    <t>Reduce variability</t>
   </si>
 </sst>
 </file>
@@ -885,14 +915,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -960,7 +990,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1033,13 +1063,16 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M3" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1115,7 +1148,7 @@
         <v>27</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1155,8 +1188,11 @@
       <c r="L6" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -1231,8 +1267,11 @@
       <c r="L8" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
@@ -1270,7 +1309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -1308,7 +1347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
@@ -1346,10 +1385,10 @@
         <v>27</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -1424,8 +1463,11 @@
       <c r="L13" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
@@ -1463,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1501,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1539,7 +1581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -1577,7 +1619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -1615,7 +1657,7 @@
         <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1655,6 +1697,9 @@
       <c r="L19" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1693,6 +1738,9 @@
       <c r="L20" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M20" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1731,6 +1779,9 @@
       <c r="L21" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M21" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1769,8 +1820,11 @@
       <c r="L22" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -1808,7 +1862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1846,7 +1900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -1884,7 +1938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1922,7 +1976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -1997,6 +2051,9 @@
       <c r="L28" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M28" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2035,6 +2092,9 @@
       <c r="L29" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M29" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2073,6 +2133,9 @@
       <c r="L30" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="M30" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2111,6 +2174,9 @@
       <c r="L31" t="s">
         <v>27</v>
       </c>
+      <c r="M31" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2144,13 +2210,16 @@
         <v>12</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>125</v>
       </c>
@@ -2182,13 +2251,16 @@
         <v>12</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -2226,7 +2298,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -2264,7 +2336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -2302,7 +2374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2340,7 +2412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2378,7 +2450,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -2416,7 +2488,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2448,13 +2520,16 @@
         <v>18</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -2486,13 +2561,16 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -2524,13 +2602,16 @@
         <v>21</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2561,14 +2642,17 @@
       <c r="J43">
         <v>16</v>
       </c>
-      <c r="K43" t="s">
-        <v>11</v>
+      <c r="K43" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M43" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -2599,14 +2683,17 @@
       <c r="J44">
         <v>17</v>
       </c>
-      <c r="K44" t="s">
-        <v>11</v>
+      <c r="K44" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M44" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2644,7 +2731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -2682,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2720,7 +2807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2758,7 +2845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2796,7 +2883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2921,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2872,7 +2959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2910,7 +2997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2948,7 +3035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2986,7 +3073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -3024,7 +3111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3062,7 +3149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -3100,7 +3187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -3138,7 +3225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -3176,7 +3263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>103</v>
       </c>
@@ -3214,7 +3301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -3252,7 +3339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>105</v>
       </c>
@@ -3290,7 +3377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>106</v>
       </c>
@@ -3328,7 +3415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>117</v>
       </c>
@@ -3359,11 +3446,14 @@
       <c r="J64">
         <v>23</v>
       </c>
-      <c r="K64" s="9" t="s">
-        <v>11</v>
+      <c r="K64" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3397,11 +3487,14 @@
       <c r="J65" s="12">
         <v>24</v>
       </c>
-      <c r="K65" s="9" t="s">
-        <v>11</v>
+      <c r="K65" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3435,11 +3528,14 @@
       <c r="J66">
         <v>30</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>11</v>
+      <c r="K66" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3473,11 +3569,14 @@
       <c r="J67">
         <v>26</v>
       </c>
-      <c r="K67" t="s">
-        <v>23</v>
+      <c r="K67" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L67" t="s">
         <v>27</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3511,11 +3610,14 @@
       <c r="J68" s="12">
         <v>33</v>
       </c>
-      <c r="K68" s="9" t="s">
-        <v>11</v>
+      <c r="K68" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3549,11 +3651,14 @@
       <c r="J69" s="12">
         <v>29</v>
       </c>
-      <c r="K69" s="9" t="s">
-        <v>11</v>
+      <c r="K69" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L69" s="9">
         <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,11 +3692,14 @@
       <c r="J70" s="12">
         <v>36</v>
       </c>
-      <c r="K70" s="9" t="s">
-        <v>11</v>
+      <c r="K70" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3625,11 +3733,14 @@
       <c r="J71">
         <v>40</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>11</v>
+      <c r="K71" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L71" s="9">
         <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,11 +3774,14 @@
       <c r="J72">
         <v>38</v>
       </c>
-      <c r="K72" s="9" t="s">
-        <v>11</v>
+      <c r="K72" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L72" s="9">
         <v>0</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,11 +3815,14 @@
       <c r="J73">
         <v>89</v>
       </c>
-      <c r="K73" s="9" t="s">
-        <v>11</v>
+      <c r="K73" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L73" s="9">
         <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3739,11 +3856,14 @@
       <c r="J74">
         <v>149</v>
       </c>
-      <c r="K74" t="s">
-        <v>33</v>
+      <c r="K74" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L74">
         <v>0</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,11 +3897,14 @@
       <c r="J75" s="12">
         <v>119</v>
       </c>
-      <c r="K75" s="9" t="s">
-        <v>11</v>
+      <c r="K75" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3815,11 +3938,14 @@
       <c r="J76">
         <v>68</v>
       </c>
-      <c r="K76" t="s">
-        <v>11</v>
+      <c r="K76" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L76">
         <v>0</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3853,11 +3979,14 @@
       <c r="J77">
         <v>67</v>
       </c>
-      <c r="K77" t="s">
-        <v>11</v>
+      <c r="K77" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L77">
         <v>0</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3891,11 +4020,14 @@
       <c r="J78">
         <v>65</v>
       </c>
-      <c r="K78" t="s">
-        <v>11</v>
+      <c r="K78" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L78">
         <v>0</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3929,11 +4061,14 @@
       <c r="J79">
         <v>338</v>
       </c>
-      <c r="K79" t="s">
-        <v>11</v>
+      <c r="K79" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L79">
         <v>0</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3968,16 +4103,16 @@
         <v>380000000</v>
       </c>
       <c r="K80" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -4008,14 +4143,17 @@
       <c r="J81" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K81" t="s">
-        <v>11</v>
+      <c r="K81" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M81" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -4046,14 +4184,17 @@
       <c r="J82" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K82" t="s">
-        <v>11</v>
+      <c r="K82" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M82" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -4084,14 +4225,17 @@
       <c r="J83" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K83" t="s">
-        <v>11</v>
+      <c r="K83" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M83" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>52</v>
       </c>
@@ -4123,13 +4267,16 @@
         <v>1519557910</v>
       </c>
       <c r="K84" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>48</v>
       </c>
@@ -4160,15 +4307,23 @@
       <c r="J85">
         <v>547488</v>
       </c>
-      <c r="K85" t="s">
-        <v>33</v>
+      <c r="K85" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L85">
         <v>0</v>
+      </c>
+      <c r="M85" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M85" xr:uid="{A377AA76-3540-4D7F-85D7-EE3C690E262F}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Numeric"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M85">
       <sortCondition ref="F1"/>
     </sortState>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bb\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5995B70-F812-4B74-97F5-025C2193BE3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EBA99-C3F2-400E-885F-87B68BD8FA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="161">
   <si>
     <t>Feature name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Null</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>movie_id</t>
   </si>
   <si>
@@ -467,10 +464,49 @@
     <t>Log</t>
   </si>
   <si>
-    <t>Log transformtation to reduce the variability</t>
-  </si>
-  <si>
     <t>Reduce variability</t>
+  </si>
+  <si>
+    <t>Outlier Notes</t>
+  </si>
+  <si>
+    <t>Categories num</t>
+  </si>
+  <si>
+    <t>Categories names</t>
+  </si>
+  <si>
+    <t>None, Some</t>
+  </si>
+  <si>
+    <t>Not-Exist, Exist</t>
+  </si>
+  <si>
+    <t>0,1,2</t>
+  </si>
+  <si>
+    <t>0,1,3</t>
+  </si>
+  <si>
+    <t>0,1,4</t>
+  </si>
+  <si>
+    <t>0,1,5</t>
+  </si>
+  <si>
+    <t>0,1,6</t>
+  </si>
+  <si>
+    <t>0,1,7</t>
+  </si>
+  <si>
+    <t>0,1,10</t>
+  </si>
+  <si>
+    <t>0,1,2,6</t>
+  </si>
+  <si>
+    <t>None, One, Many</t>
   </si>
 </sst>
 </file>
@@ -921,8 +957,8 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -931,9 +967,13 @@
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="13" max="13" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="44.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -974,10 +1014,14 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -992,28 +1036,28 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1022,39 +1066,39 @@
         <v>7398</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1062,78 +1106,84 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>23</v>
+      <c r="K3" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="N3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1142,39 +1192,39 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1183,39 +1233,45 @@
         <v>2</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="N6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1224,36 +1280,36 @@
         <v>3</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1262,39 +1318,45 @@
         <v>3</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="N8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O8" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1303,36 +1365,36 @@
         <v>1</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1341,36 +1403,36 @@
         <v>1</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1379,39 +1441,39 @@
         <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1420,36 +1482,36 @@
         <v>1</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1458,39 +1520,45 @@
         <v>4</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="N13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="12">
         <v>4696</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="13">
         <v>6788</v>
@@ -1499,36 +1567,36 @@
         <v>42958</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>98</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>1918</v>
@@ -1537,36 +1605,36 @@
         <v>2017</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>12</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1575,36 +1643,36 @@
         <v>12</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>31</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1613,36 +1681,36 @@
         <v>31</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1651,39 +1719,39 @@
         <v>1</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1692,39 +1760,45 @@
         <v>5</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20">
         <v>6</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1733,39 +1807,45 @@
         <v>6</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N20" t="s">
+        <v>156</v>
+      </c>
+      <c r="O20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>6</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1774,39 +1854,45 @@
         <v>5</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1815,191 +1901,197 @@
         <v>6</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="M22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2008,36 +2100,36 @@
         <v>1</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2046,39 +2138,45 @@
         <v>6</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2087,39 +2185,45 @@
         <v>7</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N29" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2128,39 +2232,45 @@
         <v>10</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F31">
         <v>12</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I31" s="10">
         <v>-50746591</v>
@@ -2169,39 +2279,39 @@
         <v>74205073</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32">
         <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2210,39 +2320,39 @@
         <v>12</v>
       </c>
       <c r="K32" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
         <v>140</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33">
         <v>12</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2251,39 +2361,39 @@
         <v>12</v>
       </c>
       <c r="K33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2292,36 +2402,36 @@
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2330,36 +2440,36 @@
         <v>1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2368,36 +2478,36 @@
         <v>1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2406,36 +2516,36 @@
         <v>1</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2444,36 +2554,36 @@
         <v>1</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -2482,36 +2592,36 @@
         <v>1</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <v>13</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -2520,39 +2630,39 @@
         <v>18</v>
       </c>
       <c r="K40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
         <v>140</v>
-      </c>
-      <c r="L40" s="9">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <v>16</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -2561,39 +2671,39 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42">
         <v>16</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2602,39 +2712,39 @@
         <v>21</v>
       </c>
       <c r="K42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L42" s="9">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L42" s="9">
-        <v>0</v>
-      </c>
-      <c r="M42" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>17</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2643,39 +2753,39 @@
         <v>16</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44">
         <v>18</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2684,39 +2794,39 @@
         <v>17</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2728,33 +2838,33 @@
         <v>11</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46">
         <v>2</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -2766,33 +2876,33 @@
         <v>11</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -2804,33 +2914,33 @@
         <v>11</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -2842,33 +2952,33 @@
         <v>11</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -2880,33 +2990,33 @@
         <v>11</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -2918,33 +3028,33 @@
         <v>11</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -2956,33 +3066,33 @@
         <v>11</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2994,33 +3104,33 @@
         <v>11</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3032,33 +3142,33 @@
         <v>11</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3070,33 +3180,33 @@
         <v>11</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3108,33 +3218,33 @@
         <v>11</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56">
         <v>2</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3146,33 +3256,33 @@
         <v>11</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3184,33 +3294,33 @@
         <v>11</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58">
         <v>2</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3222,33 +3332,33 @@
         <v>11</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3260,33 +3370,33 @@
         <v>11</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60">
         <v>2</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3298,33 +3408,33 @@
         <v>11</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3336,33 +3446,33 @@
         <v>11</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3374,33 +3484,33 @@
         <v>11</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3412,33 +3522,33 @@
         <v>11</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F64">
         <v>20</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -3447,39 +3557,39 @@
         <v>23</v>
       </c>
       <c r="K64" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65">
         <v>23</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -3488,39 +3598,39 @@
         <v>24</v>
       </c>
       <c r="K65" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="9">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
         <v>140</v>
-      </c>
-      <c r="L65" s="9">
-        <v>0</v>
-      </c>
-      <c r="M65" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F66">
         <v>23</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -3529,39 +3639,39 @@
         <v>30</v>
       </c>
       <c r="K66" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="9">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
         <v>140</v>
-      </c>
-      <c r="L66" s="9">
-        <v>0</v>
-      </c>
-      <c r="M66" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
         <v>14</v>
       </c>
-      <c r="C67" t="s">
-        <v>15</v>
-      </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F67">
         <v>24</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -3570,39 +3680,39 @@
         <v>26</v>
       </c>
       <c r="K67" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L67" t="s">
-        <v>27</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68">
         <v>27</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -3611,39 +3721,39 @@
         <v>33</v>
       </c>
       <c r="K68" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="9">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
         <v>140</v>
-      </c>
-      <c r="L68" s="9">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F69">
         <v>30</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3652,39 +3762,39 @@
         <v>29</v>
       </c>
       <c r="K69" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="9">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
         <v>140</v>
-      </c>
-      <c r="L69" s="9">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F70">
         <v>34</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -3693,39 +3803,39 @@
         <v>36</v>
       </c>
       <c r="K70" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" s="9">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
         <v>140</v>
-      </c>
-      <c r="L70" s="9">
-        <v>0</v>
-      </c>
-      <c r="M70" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71">
         <v>34</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -3734,39 +3844,39 @@
         <v>40</v>
       </c>
       <c r="K71" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="9">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
         <v>140</v>
-      </c>
-      <c r="L71" s="9">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F72">
         <v>37</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -3775,39 +3885,39 @@
         <v>38</v>
       </c>
       <c r="K72" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L72" s="9">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="L72" s="9">
-        <v>0</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F73">
         <v>45</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -3816,39 +3926,39 @@
         <v>89</v>
       </c>
       <c r="K73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="9">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
         <v>140</v>
-      </c>
-      <c r="L73" s="9">
-        <v>0</v>
-      </c>
-      <c r="M73" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74">
         <v>46</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -3857,39 +3967,39 @@
         <v>149</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>50</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -3898,39 +4008,39 @@
         <v>119</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F76">
         <v>53</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -3939,39 +4049,39 @@
         <v>68</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F77">
         <v>59</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -3980,39 +4090,39 @@
         <v>67</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F78">
         <v>61</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4021,39 +4131,39 @@
         <v>65</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F79">
         <v>167</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4062,36 +4172,36 @@
         <v>338</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D80" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F80">
         <v>704</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" s="3">
         <v>1</v>
@@ -4103,36 +4213,36 @@
         <v>380000000</v>
       </c>
       <c r="K80" t="s">
+        <v>145</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="12">
         <v>1151</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -4143,37 +4253,37 @@
       <c r="J81" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K81" s="8" t="s">
-        <v>140</v>
+      <c r="K81" t="s">
+        <v>145</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F82" s="12">
         <v>1264</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -4184,37 +4294,37 @@
       <c r="J82" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K82" s="8" t="s">
-        <v>140</v>
+      <c r="K82" t="s">
+        <v>145</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F83">
         <v>1340</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -4225,40 +4335,40 @@
       <c r="J83" s="12">
         <v>1519557910</v>
       </c>
-      <c r="K83" s="8" t="s">
-        <v>140</v>
+      <c r="K83" t="s">
+        <v>145</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F84" s="12">
         <v>2844</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -4267,39 +4377,39 @@
         <v>1519557910</v>
       </c>
       <c r="K84" t="s">
+        <v>145</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D85" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F85" s="10">
         <v>7371</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4308,13 +4418,13 @@
         <v>547488</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>142</v>
+        <v>11</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4492,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -4394,38 +4504,38 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
@@ -4433,69 +4543,69 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bb\DataScience\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19EBA99-C3F2-400E-885F-87B68BD8FA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6213DC-3C42-478A-A5CD-851FE0A5E08D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="176">
   <si>
     <t>Feature name</t>
   </si>
@@ -449,12 +449,6 @@
     <t>Sqrt transformtation to reduce number of outliers</t>
   </si>
   <si>
-    <t>Winsorizing</t>
-  </si>
-  <si>
-    <t>Regression line looks the same also with outliers</t>
-  </si>
-  <si>
     <t>Outlier crates strong assosiation</t>
   </si>
   <si>
@@ -479,9 +473,6 @@
     <t>None, Some</t>
   </si>
   <si>
-    <t>Not-Exist, Exist</t>
-  </si>
-  <si>
     <t>0,1,2</t>
   </si>
   <si>
@@ -507,6 +498,60 @@
   </si>
   <si>
     <t>None, One, Many</t>
+  </si>
+  <si>
+    <t>0,2,12</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,12</t>
+  </si>
+  <si>
+    <t>0,1,18</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,15</t>
+  </si>
+  <si>
+    <t>Regression line looks the same also with outliers - assumption and result are the same</t>
+  </si>
+  <si>
+    <t>0,5,10,15,25</t>
+  </si>
+  <si>
+    <t>Few, Some, Many, Huge</t>
+  </si>
+  <si>
+    <t>0,1,2,6,8,33</t>
+  </si>
+  <si>
+    <t>None, Few, Some, Many, Huge</t>
+  </si>
+  <si>
+    <t>None, Exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Too many oultoers to drop </t>
+  </si>
+  <si>
+    <t>One, Many</t>
+  </si>
+  <si>
+    <t>None, One, Two, Three, Many</t>
+  </si>
+  <si>
+    <t>None, One, Two, Three, Four, Many</t>
+  </si>
+  <si>
+    <t>0,1,6,13, 119</t>
+  </si>
+  <si>
+    <t>None, Few, Some, Many</t>
+  </si>
+  <si>
+    <t>$one, Few, Some, Many</t>
+  </si>
+  <si>
+    <t>0,1,6,13,119</t>
   </si>
 </sst>
 </file>
@@ -957,15 +1002,15 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -973,7 +1018,7 @@
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="44.140625" customWidth="1"/>
     <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1014,13 +1059,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1116,10 +1161,10 @@
         <v>137</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1242,10 +1287,10 @@
         <v>137</v>
       </c>
       <c r="N6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,10 +1372,10 @@
         <v>137</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1529,10 +1574,10 @@
         <v>137</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,10 +1814,10 @@
         <v>137</v>
       </c>
       <c r="N19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,10 +1861,10 @@
         <v>137</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,10 +1908,10 @@
         <v>137</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1910,10 +1955,10 @@
         <v>137</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2147,10 +2192,10 @@
         <v>137</v>
       </c>
       <c r="N28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,10 +2239,10 @@
         <v>137</v>
       </c>
       <c r="N29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,10 +2286,10 @@
         <v>137</v>
       </c>
       <c r="N30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2320,16 +2365,22 @@
         <v>12</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N32" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -2361,16 +2412,22 @@
         <v>12</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M33" t="s">
+        <v>137</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2408,7 +2465,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2446,7 +2503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2484,7 +2541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2522,7 +2579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2560,7 +2617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2598,7 +2655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2630,16 +2687,22 @@
         <v>18</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="N40" t="s">
+        <v>160</v>
+      </c>
+      <c r="O40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -2671,16 +2734,22 @@
         <v>15</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>137</v>
+      </c>
+      <c r="N41" t="s">
+        <v>161</v>
+      </c>
+      <c r="O41" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2712,16 +2781,16 @@
         <v>21</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -2753,16 +2822,16 @@
         <v>16</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2794,16 +2863,16 @@
         <v>17</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2841,7 +2910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2879,7 +2948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2917,7 +2986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3557,16 +3626,16 @@
         <v>23</v>
       </c>
       <c r="K64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="9">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="L64" s="9">
-        <v>0</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -3598,16 +3667,22 @@
         <v>24</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="N65" t="s">
+        <v>163</v>
+      </c>
+      <c r="O65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3639,16 +3714,16 @@
         <v>30</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
       </c>
-      <c r="M66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M66" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3680,16 +3755,16 @@
         <v>26</v>
       </c>
       <c r="K67" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" t="s">
+        <v>26</v>
+      </c>
+      <c r="M67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="L67" t="s">
-        <v>26</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -3721,7 +3796,7 @@
         <v>33</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
@@ -3729,8 +3804,14 @@
       <c r="M68" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N68" t="s">
+        <v>165</v>
+      </c>
+      <c r="O68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -3762,16 +3843,16 @@
         <v>29</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="L69" s="9">
         <v>0</v>
       </c>
-      <c r="M69" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3812,7 +3893,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -3844,16 +3925,22 @@
         <v>40</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="L71" s="9">
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="N71" t="s">
+        <v>163</v>
+      </c>
+      <c r="O71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -3891,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -3932,10 +4019,16 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="N73" t="s">
+        <v>149</v>
+      </c>
+      <c r="O73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -3973,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -4014,10 +4107,16 @@
         <v>0</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="N75" t="s">
+        <v>175</v>
+      </c>
+      <c r="O75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4055,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -4096,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -4137,10 +4236,10 @@
         <v>0</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>49</v>
       </c>
@@ -4178,10 +4277,10 @@
         <v>0</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -4213,13 +4312,13 @@
         <v>380000000</v>
       </c>
       <c r="K80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4254,13 +4353,13 @@
         <v>1519557910</v>
       </c>
       <c r="K81" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4295,13 +4394,13 @@
         <v>1519557910</v>
       </c>
       <c r="K82" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4336,13 +4435,13 @@
         <v>1519557910</v>
       </c>
       <c r="K83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4377,13 +4476,13 @@
         <v>1519557910</v>
       </c>
       <c r="K84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4424,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6213DC-3C42-478A-A5CD-851FE0A5E08D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38A04B-5211-46AD-A85C-3A4343F0AC84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="175">
   <si>
     <t>Feature name</t>
   </si>
@@ -437,18 +437,12 @@
     <t>Whether movie was released onm those monthes (8,9,10,12)</t>
   </si>
   <si>
-    <t>Set Value type=Categorical due to low variability</t>
-  </si>
-  <si>
     <t>No outliers</t>
   </si>
   <si>
     <t>Sqrt</t>
   </si>
   <si>
-    <t>Sqrt transformtation to reduce number of outliers</t>
-  </si>
-  <si>
     <t>Outlier crates strong assosiation</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>0,1,2,3,4,5,15</t>
   </si>
   <si>
-    <t>Regression line looks the same also with outliers - assumption and result are the same</t>
-  </si>
-  <si>
     <t>0,5,10,15,25</t>
   </si>
   <si>
@@ -542,16 +533,24 @@
     <t>None, One, Two, Three, Four, Many</t>
   </si>
   <si>
-    <t>0,1,6,13, 119</t>
-  </si>
-  <si>
     <t>None, Few, Some, Many</t>
   </si>
   <si>
-    <t>$one, Few, Some, Many</t>
-  </si>
-  <si>
     <t>0,1,6,13,119</t>
+  </si>
+  <si>
+    <t>due to low variability</t>
+  </si>
+  <si>
+    <t>Regression line looks the same also with outliers
+ - assumption and result are the same</t>
+  </si>
+  <si>
+    <t>Regression line looks the same also with outliers -
+ assumption and result are the same</t>
+  </si>
+  <si>
+    <t>to reduce number of outliers</t>
   </si>
 </sst>
 </file>
@@ -655,7 +654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,6 +680,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,8 +1004,8 @@
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1059,13 +1061,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -1128,7 +1130,7 @@
         <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1157,14 +1159,14 @@
       <c r="L3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>137</v>
+      <c r="M3" t="s">
+        <v>171</v>
       </c>
       <c r="N3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1254,7 +1256,7 @@
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1284,13 +1286,13 @@
         <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1339,7 +1341,7 @@
         <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -1369,13 +1371,13 @@
         <v>26</v>
       </c>
       <c r="M8" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,7 +1543,7 @@
         <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -1571,13 +1573,13 @@
         <v>26</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,7 +1783,7 @@
         <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1811,13 +1813,13 @@
         <v>26</v>
       </c>
       <c r="M19" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1828,7 +1830,7 @@
         <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1858,13 +1860,13 @@
         <v>26</v>
       </c>
       <c r="M20" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1875,7 +1877,7 @@
         <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1905,13 +1907,13 @@
         <v>26</v>
       </c>
       <c r="M21" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1922,7 +1924,7 @@
         <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1952,13 +1954,13 @@
         <v>26</v>
       </c>
       <c r="M22" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2159,7 +2161,7 @@
         <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -2189,13 +2191,13 @@
         <v>26</v>
       </c>
       <c r="M28" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2206,7 +2208,7 @@
         <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2236,13 +2238,13 @@
         <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2255,7 @@
         <v>129</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -2283,16 +2285,16 @@
         <v>26</v>
       </c>
       <c r="M30" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2341,7 +2343,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -2371,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2388,7 +2390,7 @@
         <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2418,13 +2420,13 @@
         <v>26</v>
       </c>
       <c r="M33" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -2663,7 +2665,7 @@
         <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -2693,13 +2695,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N40" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2710,7 +2712,7 @@
         <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -2740,16 +2742,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2786,11 +2788,11 @@
       <c r="L42" s="9">
         <v>0</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M42" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -2828,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2869,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3643,7 +3645,7 @@
         <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -3673,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N65" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O65" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3720,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,7 +3774,7 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -3802,16 +3804,16 @@
         <v>0</v>
       </c>
       <c r="M68" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="N68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -3848,11 +3850,11 @@
       <c r="L69" s="9">
         <v>0</v>
       </c>
-      <c r="M69" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M69" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3884,13 +3886,13 @@
         <v>36</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
       </c>
       <c r="M70" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3901,7 +3903,7 @@
         <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -3931,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="M71" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -3977,8 +3979,8 @@
       <c r="L72" s="9">
         <v>0</v>
       </c>
-      <c r="M72" s="9" t="s">
-        <v>162</v>
+      <c r="M72" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3989,7 +3991,7 @@
         <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -4019,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="M73" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="N73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O73" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4077,7 +4079,7 @@
         <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -4107,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N75" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O75" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4154,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -4195,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -4236,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>49</v>
       </c>
@@ -4277,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -4312,16 +4314,16 @@
         <v>380000000</v>
       </c>
       <c r="K80" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
-      <c r="M80" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M80" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4353,16 +4355,16 @@
         <v>1519557910</v>
       </c>
       <c r="K81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L81">
         <v>1</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -4394,16 +4396,16 @@
         <v>1519557910</v>
       </c>
       <c r="K82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L82">
         <v>1</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -4435,16 +4437,16 @@
         <v>1519557910</v>
       </c>
       <c r="K83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L83">
         <v>1</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>51</v>
       </c>
@@ -4476,16 +4478,16 @@
         <v>1519557910</v>
       </c>
       <c r="K84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>47</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4531,6 +4533,11 @@
     <filterColumn colId="2">
       <filters>
         <filter val="Numeric"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Categorize"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M85">

--- a/project/BoxOffice - Data Retrieval Protocol.xlsx
+++ b/project/BoxOffice - Data Retrieval Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cherch\DataScience\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A38A04B-5211-46AD-A85C-3A4343F0AC84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9462DF2-7013-4D4B-BE4F-D4158920F60A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="266" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocol" sheetId="2" r:id="rId1"/>
@@ -998,13 +998,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -1081,7 +1081,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>52</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>55</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>111</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>106</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>70</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>49</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>45</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>51</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>47</v>
       </c>
@@ -4530,16 +4530,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:M85" xr:uid="{A377AA76-3540-4D7F-85D7-EE3C690E262F}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Numeric"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Categorize"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M85">
       <sortCondition ref="F1"/>
     </sortState>
